--- a/data/mall-cloud-alibaba/cms-common_structure.xlsx
+++ b/data/mall-cloud-alibaba/cms-common_structure.xlsx
@@ -168,22 +168,22 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>subjectId</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>productId</t>
-  </si>
-  <si>
-    <t>subjectId</t>
   </si>
   <si>
     <t>prefrenceAreaId</t>
@@ -1532,7 +1532,7 @@
         <v>49</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1540,7 +1540,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>49</v>
@@ -1554,13 +1554,13 @@
         <v>28</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1582,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>49</v>
@@ -1596,13 +1596,13 @@
         <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -1610,7 +1610,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>49</v>
@@ -1624,7 +1624,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>49</v>
